--- a/Teamcontract & Urenplanning/Urenplanning en verantwoording themaopdracht Devices.xlsx
+++ b/Teamcontract & Urenplanning/Urenplanning en verantwoording themaopdracht Devices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonLiu5\Documents\Thema-Opdracht-Devices-HU\Teamcontract &amp; Urenplanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Dropbox\School\Jaar 2\Thema Devices\github\Thema-Opdracht-Devices-HU\Teamcontract &amp; Urenplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="49">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -173,16 +173,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -418,75 +412,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,57 +516,27 @@
     <xf numFmtId="2" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -892,1608 +879,1608 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="17.28515625" style="20"/>
+    <col min="1" max="1" width="12.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="17.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" s="26" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>43031</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="E6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="25">
         <v>3</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
         <v>3</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="33">
+      <c r="I6" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="27">
         <v>3</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="24">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4</v>
+      </c>
+      <c r="F7" s="25">
+        <v>5</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
         <v>6</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="I7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="27">
+        <v>5</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="25">
+        <v>5</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="26">
+        <v>5</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="27">
+        <v>5</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22">
+        <v>43032</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="24">
         <v>6</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="E9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="25">
         <v>6</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="33">
+      <c r="G9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="26">
         <v>6</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="I9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="K9" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="24">
         <v>6</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="E10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="25">
         <v>6</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="33">
+      <c r="G10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="26">
         <v>6</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28">
-        <v>43032</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="I10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="K10" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="27">
+        <v>2</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22">
+        <v>43033</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="24">
         <v>6</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="E13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="25">
         <v>6</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="33">
+      <c r="G13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="26">
         <v>6</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="I13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="27">
+        <v>6</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22">
+        <v>43034</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="30">
-        <v>6</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="31">
-        <v>6</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="32">
-        <v>6</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="33">
-        <v>6</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="30">
+      <c r="D14" s="24">
         <v>2</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="E14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="25">
         <v>2</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="32">
+      <c r="G14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26">
         <v>2</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="33">
+      <c r="I14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="27">
         <v>2</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28">
-        <v>43033</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="30">
-        <v>6</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="31">
-        <v>6</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="32">
-        <v>6</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="33">
-        <v>6</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28">
-        <v>43034</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="K14" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="27">
+        <v>1</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22">
+        <v>43035</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="24">
+        <v>4</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="25">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="26">
+        <v>4</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="27">
+        <v>4</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="30">
+        <v>43035</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" ref="D19:K19" si="0">SUM(D6:D18)</f>
+        <v>42.5</v>
+      </c>
+      <c r="E19" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G19" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="34">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43038</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="26">
         <v>2</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="31">
+      <c r="I20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="24">
+        <v>4</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="25">
+        <v>4</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="26">
+        <v>4</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="27">
+        <v>4</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="37">
         <v>2</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="32">
+      <c r="E25" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="35">
         <v>2</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="33">
+      <c r="G25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="38">
         <v>2</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="K25" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22">
+        <v>43039</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="24">
+        <v>4</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="25">
+        <v>4</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="26">
+        <v>4</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="27">
+        <v>4</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="37">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="35">
+        <v>2</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="38">
+        <v>2</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22">
+        <v>43040</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="25">
+        <v>2</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="26">
+        <v>2</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="27">
+        <v>2</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="25">
+        <v>3</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="26">
+        <v>3</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="27">
+        <v>3</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="26">
+        <v>2</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22">
+        <v>43041</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="24">
+        <v>4</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="25">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="26">
+        <v>4</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="27">
+        <v>4</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="E36" s="24"/>
+      <c r="F36" s="25">
         <v>1</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="32">
+      <c r="G36" s="25"/>
+      <c r="H36" s="26">
         <v>1</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="33">
+      <c r="I36" s="26"/>
+      <c r="J36" s="27">
         <v>1</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="33">
-        <v>1</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28">
-        <v>43035</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="24">
         <v>4</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="E37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="26">
         <v>4</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="I37" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="25">
         <v>4</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="G38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="27">
         <v>4</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="K38" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22">
+        <v>43042</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="26">
+        <v>3</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="27">
+        <v>3</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="35">
-        <v>43035</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="B41" s="30">
+        <v>43042</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="34">
+        <f t="shared" ref="D42:K42" si="1">SUM(D20:D40)</f>
         <v>29</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38" t="s">
+      <c r="E42" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="34">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G42" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="34">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I42" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="34">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K42" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="30">
+        <v>43047</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="39">
-        <f>SUM(D6:D18)</f>
-        <v>44.5</v>
-      </c>
-      <c r="E19" s="39">
-        <f>SUM(E6:E18)</f>
+      <c r="D52" s="34">
+        <f t="shared" ref="D52:K52" si="2">SUM(D43:D51)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="39">
-        <f>SUM(F6:F18)</f>
-        <v>44.5</v>
-      </c>
-      <c r="G19" s="39">
-        <f>SUM(G6:G18)</f>
+      <c r="E52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="39">
-        <f>SUM(H6:H18)</f>
-        <v>44.5</v>
-      </c>
-      <c r="I19" s="39">
-        <f>SUM(I6:I18)</f>
+      <c r="F52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="39">
-        <f>SUM(J6:J18)</f>
-        <v>44.5</v>
-      </c>
-      <c r="K19" s="39">
-        <f>SUM(K6:K18)</f>
+      <c r="G52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="28">
-        <v>43038</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="32">
-        <v>2</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="30">
-        <v>4</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="31">
-        <v>4</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="32">
-        <v>4</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="33">
-        <v>4</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="53">
-        <v>2</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="40">
-        <v>2</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="54">
-        <v>2</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28">
-        <v>43039</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="30">
-        <v>4</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="31">
-        <v>4</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="32">
-        <v>4</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="33">
-        <v>4</v>
-      </c>
-      <c r="K29" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="53">
-        <v>2</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="40">
-        <v>2</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="54">
-        <v>2</v>
-      </c>
-      <c r="K30" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28">
-        <v>43040</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="30">
-        <v>2</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="32">
-        <v>2</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="33">
-        <v>2</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="30">
-        <v>3</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="31">
-        <v>3</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="32">
-        <v>3</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="33">
-        <v>3</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="32">
-        <v>2</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28">
-        <v>43041</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="30">
-        <v>4</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="31">
-        <v>4</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="32">
-        <v>4</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="33">
-        <v>4</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="30">
-        <v>1</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31">
-        <v>1</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32">
-        <v>1</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33">
-        <v>1</v>
-      </c>
-      <c r="K36" s="33"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="30">
-        <v>4</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="32">
-        <v>4</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="31">
-        <v>4</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="33">
-        <v>4</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28">
-        <v>43042</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="30">
-        <v>3</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="31">
-        <v>3</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="32">
-        <v>3</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="33">
-        <v>3</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43042</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="39">
-        <f>SUM(D20:D40)</f>
-        <v>29</v>
-      </c>
-      <c r="E42" s="39">
-        <f>SUM(E20:E40)</f>
+      <c r="H52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="39">
-        <f>SUM(F20:F40)</f>
-        <v>29</v>
-      </c>
-      <c r="G42" s="39">
-        <f>SUM(G20:G40)</f>
+      <c r="I52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="39">
-        <f>SUM(H20:H40)</f>
-        <v>29</v>
-      </c>
-      <c r="I42" s="39">
-        <f>SUM(I20:I40)</f>
+      <c r="J52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="39">
-        <f>SUM(J20:J40)</f>
-        <v>29</v>
-      </c>
-      <c r="K42" s="39">
-        <f>SUM(K20:K40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43047</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="39">
-        <f t="shared" ref="D52:K52" si="0">SUM(D43:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="39">
-        <f t="shared" si="0"/>
+      <c r="K52" s="34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2517,36 +2504,36 @@
         <v>12</v>
       </c>
       <c r="D54" s="48">
-        <f>SUM(D52,D19,D42)</f>
-        <v>73.5</v>
+        <f t="shared" ref="D54:K54" si="3">SUM(D52,D19,D42)</f>
+        <v>71.5</v>
       </c>
       <c r="E54" s="48">
-        <f>SUM(E52,E19,E42)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F54" s="49">
-        <f>SUM(F52,F19,F42)</f>
-        <v>73.5</v>
+        <f t="shared" si="3"/>
+        <v>71.5</v>
       </c>
       <c r="G54" s="49">
-        <f>SUM(G52,G19,G42)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H54" s="50">
-        <f>SUM(H52,H19,H42)</f>
-        <v>73.5</v>
+        <f t="shared" si="3"/>
+        <v>72.5</v>
       </c>
       <c r="I54" s="50">
-        <f>SUM(I52,I19,I42)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="J54" s="51">
-        <f>SUM(J52,J19,J42)</f>
-        <v>73.5</v>
+        <f t="shared" si="3"/>
+        <v>71.5</v>
       </c>
       <c r="K54" s="51">
-        <f>SUM(K52,K19,K42)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,6 +3577,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E91FD6F7D8CA454188564A8DE77BDCF3" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a3ece22d6c9ecd56f8fd9c409ecb7012">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3750,26 +3756,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1493F198-0250-4778-8491-1328BB010C5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3785,22 +3790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>